--- a/MIS/PR/Inventario C430-001 .NET.xlsx
+++ b/MIS/PR/Inventario C430-001 .NET.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Clases" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="CASOSFINALES">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -365,7 +365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3943" uniqueCount="1039">
   <si>
     <t>CLASES DE CÓDIGO C#</t>
   </si>
@@ -3307,6 +3307,183 @@
   </si>
   <si>
     <t>Matriz de Casos de Prueba .NET</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>Validar acceso correcto a BancaNet.</t>
+  </si>
+  <si>
+    <t>Validar que se pueda ingresar de manera correcta a BancaNet.</t>
+  </si>
+  <si>
+    <t>07/05/2020</t>
+  </si>
+  <si>
+    <t>Introducir en los MessageBox correspondientes los campos que se requieran para que se permita el acceso a BancaNet.</t>
+  </si>
+  <si>
+    <t>Validar que los datos ingresados si existen.</t>
+  </si>
+  <si>
+    <t>Validar que se pueda acceder correctamente a BancaNet.</t>
+  </si>
+  <si>
+    <t>Contar con acceso conrrecto a BancaNet.</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>Validar que se realice la captura de firmas para Ejecutivos Banamex.</t>
+  </si>
+  <si>
+    <t>Validar que se capturen correctamente las firmas.</t>
+  </si>
+  <si>
+    <t>Se debe  mostrar la pantalla de “Ejecutivos Banamex” y realizar una consulta.</t>
+  </si>
+  <si>
+    <t>Validar que se muestre la pantalla de  “Ejecutivos Banamex” y se muestre la consulta requerida.</t>
+  </si>
+  <si>
+    <t>En la consulta se debe de visualizar que se encuentre guardada correctamente la firma.</t>
+  </si>
+  <si>
+    <t>Validar que se muestre la firma.</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>Validar que se graben las firmas de los representantes de la empresa.</t>
+  </si>
+  <si>
+    <t>Validar que se realice correctamente el registro de las firmas.</t>
+  </si>
+  <si>
+    <t>Se debe de mostrar la pantalla de "Empresas" y dar clic en la pestaña Capturar firmas.</t>
+  </si>
+  <si>
+    <t>Mostrar la pantallas Firmas.</t>
+  </si>
+  <si>
+    <t>Validar que se realice el registro de las firmas correctamente.</t>
+  </si>
+  <si>
+    <t>Validar grabado de firmas.</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Validar que se muestre la pantalla para dar de alta una empresa correctamente.</t>
+  </si>
+  <si>
+    <t>Validar que se mande a llamar la pantalla de altas de una empresa correctamente.</t>
+  </si>
+  <si>
+    <t>Se debe de mostrar la pantalla de "Empresas" y dar clic en la pestaña Altas.</t>
+  </si>
+  <si>
+    <t>Validar que se muestre correctamente la pantalla para dar de alta una empresa.</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>Validar que se muestren los mensajes correspodientes de acuerdo a lo que se este realizando.</t>
+  </si>
+  <si>
+    <t>Validar que se muestren los mensajes correctos en cada pantalla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar un alta, baja, consulta, etc validando que se muestren los mensajes correctos de acuerdo a lo realizado. </t>
+  </si>
+  <si>
+    <t>Validar que se muestren los mensajes correspondientes.</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Validar que se llenen correctamente los ComboBox</t>
+  </si>
+  <si>
+    <t>Validar que se muestre correctamente lleno comboBox seleccionado.</t>
+  </si>
+  <si>
+    <t>Realizar el llenado de algun camboBox para validar que se muestre correctamente.</t>
+  </si>
+  <si>
+    <t>Validar llenado correcto de comoBox.</t>
+  </si>
+  <si>
+    <t>Valida credenciales para ingreso al sistema</t>
+  </si>
+  <si>
+    <t>Valida las credenciales ingresadas consumiendo un web service</t>
+  </si>
+  <si>
+    <t>Abrir pantalla de Login</t>
+  </si>
+  <si>
+    <t>Desplegar pantalla de Ingreso al sistema</t>
+  </si>
+  <si>
+    <t>Ingresar credenciales</t>
+  </si>
+  <si>
+    <t>Ingresa datos correspondientes al usuario</t>
+  </si>
+  <si>
+    <t>Click en botón Aceptar</t>
+  </si>
+  <si>
+    <t>Click en “Aceptar”</t>
+  </si>
+  <si>
+    <t>Se construye un XML para envío a Web Service</t>
+  </si>
+  <si>
+    <t>Envío de XML para consumo de Web Service</t>
+  </si>
+  <si>
+    <t>El Web Service devuelve resultado</t>
+  </si>
+  <si>
+    <t>Devuelve “1” si el usuario es válido.</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Ingresa al Sistema</t>
+  </si>
+  <si>
+    <t>Abrir pantalla principal</t>
+  </si>
+  <si>
+    <t>Obtiene valores para variables globales</t>
+  </si>
+  <si>
+    <t>Consulta en el Registry de Windows valores para variables globales del sistema</t>
+  </si>
+  <si>
+    <t>Carga pantalla principal</t>
+  </si>
+  <si>
+    <t>Ingresa la ruta del Editor de registro de windows</t>
+  </si>
+  <si>
+    <t>Con la ruta ingresa al editor de registro para obtener valores guardados</t>
+  </si>
+  <si>
+    <t>Obtiene los valores correspondientes</t>
+  </si>
+  <si>
+    <t>Asigna cada valor a la variable del sistema correspondiente</t>
   </si>
 </sst>
 </file>
@@ -3317,7 +3494,7 @@
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3557,8 +3734,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3767,6 +3951,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -4001,7 +4191,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4261,6 +4451,24 @@
     <xf numFmtId="0" fontId="22" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4320,6 +4528,27 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="9" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="9" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="36" borderId="9" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4737,7 +4966,7 @@
   </sheetPr>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -4756,39 +4985,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="115"/>
+      <c r="E1" s="121"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117"/>
+      <c r="B3" s="123"/>
       <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="117"/>
+      <c r="G3" s="123"/>
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4797,17 +5026,17 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="105"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="114"/>
+      <c r="G4" s="120"/>
       <c r="H4" s="12" t="str">
         <f>VLOOKUP(F4,A$4:C$57,3,FALSE())</f>
         <v>Sí</v>
@@ -4820,17 +5049,17 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="111"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="106"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="12" t="str">
         <f>VLOOKUP(F5,A$4:C$57,3,FALSE())</f>
         <v>Sí</v>
@@ -4843,17 +5072,17 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="111"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="106" t="s">
+      <c r="F6" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="106"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="12" t="str">
         <f>VLOOKUP(F6,A$4:C$57,3,FALSE())</f>
         <v>Sí</v>
@@ -4866,17 +5095,17 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="112"/>
+      <c r="G7" s="118"/>
       <c r="H7" s="12" t="s">
         <v>6</v>
       </c>
@@ -4888,18 +5117,18 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="105"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="20"/>
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="106"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="12" t="str">
         <f>VLOOKUP(F8,A$4:C$57,3,FALSE())</f>
         <v>Sí</v>
@@ -4912,17 +5141,17 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="105"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="106" t="s">
+      <c r="F9" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="106"/>
+      <c r="G9" s="112"/>
       <c r="H9" s="12" t="str">
         <f t="shared" ref="H9:H52" si="0">VLOOKUP(F9,A$4:C$57,3,FALSE())</f>
         <v>Sí</v>
@@ -4935,17 +5164,17 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="105"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="106" t="s">
+      <c r="F10" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="106"/>
+      <c r="G10" s="112"/>
       <c r="H10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -4958,17 +5187,17 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="105"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="114" t="s">
+      <c r="F11" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="114"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -4981,17 +5210,17 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="105"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="106" t="s">
+      <c r="F12" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="106"/>
+      <c r="G12" s="112"/>
       <c r="H12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -5004,17 +5233,17 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="105"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="106" t="s">
+      <c r="F13" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="106"/>
+      <c r="G13" s="112"/>
       <c r="H13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -5027,17 +5256,17 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="105"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="106" t="s">
+      <c r="F14" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="106"/>
+      <c r="G14" s="112"/>
       <c r="H14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -5050,17 +5279,17 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="105"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="106" t="s">
+      <c r="F15" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="106"/>
+      <c r="G15" s="112"/>
       <c r="H15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -5073,17 +5302,17 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="106" t="s">
+      <c r="F16" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="106"/>
+      <c r="G16" s="112"/>
       <c r="H16" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -5096,17 +5325,17 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="105"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="106" t="s">
+      <c r="F17" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="106"/>
+      <c r="G17" s="112"/>
       <c r="H17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -5119,17 +5348,17 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="105"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="106" t="s">
+      <c r="F18" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="106"/>
+      <c r="G18" s="112"/>
       <c r="H18" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -5142,17 +5371,17 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="105"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="106" t="s">
+      <c r="F19" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="106"/>
+      <c r="G19" s="112"/>
       <c r="H19" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -5165,17 +5394,17 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="105"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="106" t="s">
+      <c r="F20" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="106"/>
+      <c r="G20" s="112"/>
       <c r="H20" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -5188,17 +5417,17 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="105"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="106" t="s">
+      <c r="F21" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="106"/>
+      <c r="G21" s="112"/>
       <c r="H21" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -5211,17 +5440,17 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="105" t="s">
+      <c r="A22" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="105"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="106" t="s">
+      <c r="F22" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="106"/>
+      <c r="G22" s="112"/>
       <c r="H22" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -5234,17 +5463,17 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="105" t="s">
+      <c r="A23" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="105"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="106" t="s">
+      <c r="F23" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="106"/>
+      <c r="G23" s="112"/>
       <c r="H23" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -5257,17 +5486,17 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="105" t="s">
+      <c r="A24" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="105"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="106" t="s">
+      <c r="F24" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="106"/>
+      <c r="G24" s="112"/>
       <c r="H24" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -5280,17 +5509,17 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="105"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="106" t="s">
+      <c r="F25" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="106"/>
+      <c r="G25" s="112"/>
       <c r="H25" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -5303,17 +5532,17 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="105" t="s">
+      <c r="A26" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="105"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="106" t="s">
+      <c r="F26" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="106"/>
+      <c r="G26" s="112"/>
       <c r="H26" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -5326,536 +5555,536 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="105" t="s">
+      <c r="A27" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="105"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="107" t="s">
+      <c r="F27" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="107"/>
+      <c r="G27" s="113"/>
       <c r="H27" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="105" t="s">
+      <c r="A28" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="105"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="107" t="s">
+      <c r="F28" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="107"/>
+      <c r="G28" s="113"/>
       <c r="H28" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="105" t="s">
+      <c r="A29" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="105"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="107"/>
+      <c r="G29" s="113"/>
       <c r="H29" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="105" t="s">
+      <c r="A30" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="105"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="107" t="s">
+      <c r="F30" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="107"/>
+      <c r="G30" s="113"/>
       <c r="H30" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="105" t="s">
+      <c r="A31" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="105"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="107" t="s">
+      <c r="F31" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="107"/>
+      <c r="G31" s="113"/>
       <c r="H31" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="109" t="s">
+      <c r="A32" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="109"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="107" t="s">
+      <c r="F32" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="107"/>
+      <c r="G32" s="113"/>
       <c r="H32" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="105" t="s">
+      <c r="A33" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="105"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="107" t="s">
+      <c r="F33" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="107"/>
+      <c r="G33" s="113"/>
       <c r="H33" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="110"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="107" t="s">
+      <c r="F34" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="107"/>
+      <c r="G34" s="113"/>
       <c r="H34" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="105"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="107" t="s">
+      <c r="F35" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="107"/>
+      <c r="G35" s="113"/>
       <c r="H35" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="105"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="107" t="s">
+      <c r="F36" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="107"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="105" t="s">
+      <c r="A37" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="105"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="107" t="s">
+      <c r="F37" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="107"/>
+      <c r="G37" s="113"/>
       <c r="H37" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="105" t="s">
+      <c r="A38" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="105"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="107" t="s">
+      <c r="F38" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="107"/>
+      <c r="G38" s="113"/>
       <c r="H38" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="105" t="s">
+      <c r="A39" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="105"/>
+      <c r="B39" s="111"/>
       <c r="C39" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="107" t="s">
+      <c r="F39" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="G39" s="107"/>
+      <c r="G39" s="113"/>
       <c r="H39" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="105" t="s">
+      <c r="A40" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="105"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="107" t="s">
+      <c r="F40" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="107"/>
+      <c r="G40" s="113"/>
       <c r="H40" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="105" t="s">
+      <c r="A41" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="105"/>
+      <c r="B41" s="111"/>
       <c r="C41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="107" t="s">
+      <c r="F41" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="G41" s="107"/>
+      <c r="G41" s="113"/>
       <c r="H41" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="105" t="s">
+      <c r="A42" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="105"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="107" t="s">
+      <c r="F42" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="G42" s="107"/>
+      <c r="G42" s="113"/>
       <c r="H42" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="105" t="s">
+      <c r="A43" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="105"/>
+      <c r="B43" s="111"/>
       <c r="C43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="107" t="s">
+      <c r="F43" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="107"/>
+      <c r="G43" s="113"/>
       <c r="H43" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="105" t="s">
+      <c r="A44" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="105"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="107" t="s">
+      <c r="F44" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="G44" s="107"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="105" t="s">
+      <c r="A45" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="105"/>
+      <c r="B45" s="111"/>
       <c r="C45" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="107" t="s">
+      <c r="F45" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="107"/>
+      <c r="G45" s="113"/>
       <c r="H45" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="105" t="s">
+      <c r="A46" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="105"/>
+      <c r="B46" s="111"/>
       <c r="C46" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="107" t="s">
+      <c r="F46" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="107"/>
+      <c r="G46" s="113"/>
       <c r="H46" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="105" t="s">
+      <c r="A47" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="105"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="107" t="s">
+      <c r="F47" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="107"/>
+      <c r="G47" s="113"/>
       <c r="H47" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="105" t="s">
+      <c r="A48" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="105"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="107" t="s">
+      <c r="F48" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="G48" s="107"/>
+      <c r="G48" s="113"/>
       <c r="H48" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="105" t="s">
+      <c r="A49" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="105"/>
+      <c r="B49" s="111"/>
       <c r="C49" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F49" s="107" t="s">
+      <c r="F49" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="107"/>
+      <c r="G49" s="113"/>
       <c r="H49" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="105" t="s">
+      <c r="A50" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="105"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="107" t="s">
+      <c r="F50" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="G50" s="107"/>
+      <c r="G50" s="113"/>
       <c r="H50" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="105" t="s">
+      <c r="A51" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="105"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="107" t="s">
+      <c r="F51" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="G51" s="107"/>
+      <c r="G51" s="113"/>
       <c r="H51" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="105" t="s">
+      <c r="A52" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="105"/>
+      <c r="B52" s="111"/>
       <c r="C52" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F52" s="107" t="s">
+      <c r="F52" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="107"/>
+      <c r="G52" s="113"/>
       <c r="H52" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="105" t="s">
+      <c r="A53" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="105"/>
+      <c r="B53" s="111"/>
       <c r="C53" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F53" s="108" t="s">
+      <c r="F53" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="G53" s="108"/>
+      <c r="G53" s="114"/>
       <c r="H53" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="105" t="s">
+      <c r="A54" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="105"/>
+      <c r="B54" s="111"/>
       <c r="C54" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F54" s="107" t="s">
+      <c r="F54" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="G54" s="107"/>
+      <c r="G54" s="113"/>
       <c r="H54" s="13" t="str">
         <f>VLOOKUP(F54,A$4:C$57,3,FALSE())</f>
         <v>No</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="105" t="s">
+      <c r="A55" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="105"/>
+      <c r="B55" s="111"/>
       <c r="C55" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F55" s="107" t="s">
+      <c r="F55" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="G55" s="107"/>
+      <c r="G55" s="113"/>
       <c r="H55" s="13" t="str">
         <f>VLOOKUP(F55,A$4:C$57,3,FALSE())</f>
         <v>No</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="105" t="s">
+      <c r="A56" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="105"/>
+      <c r="B56" s="111"/>
       <c r="C56" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F56" s="107" t="s">
+      <c r="F56" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="G56" s="107"/>
+      <c r="G56" s="113"/>
       <c r="H56" s="13" t="str">
         <f>VLOOKUP(F56,A$4:C$57,3,FALSE())</f>
         <v>No</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="105" t="s">
+      <c r="A57" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="105"/>
+      <c r="B57" s="111"/>
       <c r="C57" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F57" s="107" t="s">
+      <c r="F57" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="G57" s="107"/>
+      <c r="G57" s="113"/>
       <c r="H57" s="13" t="str">
         <f>VLOOKUP(F57,A$4:C$57,3,FALSE())</f>
         <v>No</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="F58" s="105" t="s">
+      <c r="F58" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="G58" s="105"/>
+      <c r="G58" s="111"/>
       <c r="H58" s="13" t="str">
         <f>VLOOKUP(F58,A$4:C$57,3,FALSE())</f>
         <v>No</v>
@@ -6006,37 +6235,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="115"/>
+      <c r="E1" s="121"/>
     </row>
     <row r="2" spans="1:10" ht="17.25">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117"/>
+      <c r="B3" s="123"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="117"/>
+      <c r="G3" s="123"/>
       <c r="H3" s="7" t="s">
         <v>4</v>
       </c>
@@ -6045,17 +6274,17 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="105"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="114"/>
+      <c r="G4" s="120"/>
       <c r="H4" s="12" t="str">
         <f t="shared" ref="H4:H17" si="0">VLOOKUP(F4,A$4:C$17,3,FALSE())</f>
         <v>Sí</v>
@@ -6068,17 +6297,17 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="105"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="114"/>
+      <c r="G5" s="120"/>
       <c r="H5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -6091,17 +6320,17 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="114"/>
+      <c r="G6" s="120"/>
       <c r="H6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -6114,187 +6343,187 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="105"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="105"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="105" t="s">
+      <c r="F8" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="105"/>
+      <c r="G8" s="111"/>
       <c r="H8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="105"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="105" t="s">
+      <c r="F9" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="105"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="105"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="105"/>
+      <c r="G10" s="111"/>
       <c r="H10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="105"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="105" t="s">
+      <c r="F11" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="105"/>
+      <c r="G11" s="111"/>
       <c r="H11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="105"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="105" t="s">
+      <c r="F12" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="105"/>
+      <c r="G12" s="111"/>
       <c r="H12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="105"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="105"/>
+      <c r="G13" s="111"/>
       <c r="H13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="105"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="105" t="s">
+      <c r="F14" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="105"/>
+      <c r="G14" s="111"/>
       <c r="H14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="105"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="105" t="s">
+      <c r="F15" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="105"/>
+      <c r="G15" s="111"/>
       <c r="H15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="105" t="s">
+      <c r="F16" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="105"/>
+      <c r="G16" s="111"/>
       <c r="H16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="105"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="105" t="s">
+      <c r="F17" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="105"/>
+      <c r="G17" s="111"/>
       <c r="H17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
@@ -6367,31 +6596,31 @@
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="17.25">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117"/>
+      <c r="B3" s="123"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="117"/>
+      <c r="G3" s="123"/>
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
@@ -6400,18 +6629,18 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="105"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="F4" s="119" t="s">
+      <c r="F4" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="120"/>
+      <c r="G4" s="126"/>
       <c r="H4" s="12" t="str">
         <f>VLOOKUP(F4,A$4:C$36,3,FALSE())</f>
         <v>Sí</v>
@@ -6424,17 +6653,17 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="105"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="114"/>
+      <c r="G5" s="120"/>
       <c r="H5" s="12" t="str">
         <f t="shared" ref="H5:H36" si="0">VLOOKUP(F5,A$5:C$36,3,FALSE())</f>
         <v>Sí</v>
@@ -6447,17 +6676,17 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="114"/>
+      <c r="G6" s="120"/>
       <c r="H6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -6470,17 +6699,17 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="114" t="s">
+      <c r="F7" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="114"/>
+      <c r="G7" s="120"/>
       <c r="H7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -6493,17 +6722,17 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="105"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="114" t="s">
+      <c r="F8" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="114"/>
+      <c r="G8" s="120"/>
       <c r="H8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -6516,17 +6745,17 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="105"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="114"/>
+      <c r="G9" s="120"/>
       <c r="H9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -6539,17 +6768,17 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="105"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="114" t="s">
+      <c r="F10" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="114"/>
+      <c r="G10" s="120"/>
       <c r="H10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -6562,17 +6791,17 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="105"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="114" t="s">
+      <c r="F11" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="114"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -6585,17 +6814,17 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="105"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="114" t="s">
+      <c r="F12" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="114"/>
+      <c r="G12" s="120"/>
       <c r="H12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -6608,17 +6837,17 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="105"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="114" t="s">
+      <c r="F13" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="114"/>
+      <c r="G13" s="120"/>
       <c r="H13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -6631,17 +6860,17 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="105"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="114" t="s">
+      <c r="F14" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="114"/>
+      <c r="G14" s="120"/>
       <c r="H14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -6654,17 +6883,17 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="105"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="114" t="s">
+      <c r="F15" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="114"/>
+      <c r="G15" s="120"/>
       <c r="H15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sí</v>
@@ -6677,357 +6906,357 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="105" t="s">
+      <c r="F16" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="105"/>
+      <c r="G16" s="111"/>
       <c r="H16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="105"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="105" t="s">
+      <c r="F17" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="105"/>
+      <c r="G17" s="111"/>
       <c r="H17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="105"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="105" t="s">
+      <c r="F18" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="105"/>
+      <c r="G18" s="111"/>
       <c r="H18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="105"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="105" t="s">
+      <c r="F19" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="105"/>
+      <c r="G19" s="111"/>
       <c r="H19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="105"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="105" t="s">
+      <c r="F20" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="105"/>
+      <c r="G20" s="111"/>
       <c r="H20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="105"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="105"/>
+      <c r="G21" s="111"/>
       <c r="H21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="105" t="s">
+      <c r="A22" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="105"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="105" t="s">
+      <c r="F22" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="105"/>
+      <c r="G22" s="111"/>
       <c r="H22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="105" t="s">
+      <c r="A23" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="105"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="105" t="s">
+      <c r="F23" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="105"/>
+      <c r="G23" s="111"/>
       <c r="H23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="105" t="s">
+      <c r="A24" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="105"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="105" t="s">
+      <c r="F24" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="105"/>
+      <c r="G24" s="111"/>
       <c r="H24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="105"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="105" t="s">
+      <c r="F25" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="105"/>
+      <c r="G25" s="111"/>
       <c r="H25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="105" t="s">
+      <c r="A26" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="105"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="118" t="s">
+      <c r="F26" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="118"/>
+      <c r="G26" s="124"/>
       <c r="H26" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="105" t="s">
+      <c r="A27" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="105"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="105" t="s">
+      <c r="F27" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="105"/>
+      <c r="G27" s="111"/>
       <c r="H27" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="105" t="s">
+      <c r="A28" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="105"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="105" t="s">
+      <c r="F28" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="105"/>
+      <c r="G28" s="111"/>
       <c r="H28" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="105" t="s">
+      <c r="A29" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="105"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="105" t="s">
+      <c r="F29" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="105"/>
+      <c r="G29" s="111"/>
       <c r="H29" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="105" t="s">
+      <c r="A30" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="105"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="105" t="s">
+      <c r="F30" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="G30" s="105"/>
+      <c r="G30" s="111"/>
       <c r="H30" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="105" t="s">
+      <c r="A31" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="105"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="105" t="s">
+      <c r="F31" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="105"/>
+      <c r="G31" s="111"/>
       <c r="H31" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="105" t="s">
+      <c r="A32" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="105"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="105" t="s">
+      <c r="F32" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="105"/>
+      <c r="G32" s="111"/>
       <c r="H32" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="105" t="s">
+      <c r="A33" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="105"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="105" t="s">
+      <c r="F33" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="G33" s="105"/>
+      <c r="G33" s="111"/>
       <c r="H33" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="105" t="s">
+      <c r="A34" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="105"/>
+      <c r="B34" s="111"/>
       <c r="C34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="105" t="s">
+      <c r="F34" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="G34" s="105"/>
+      <c r="G34" s="111"/>
       <c r="H34" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="105"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="105" t="s">
+      <c r="F35" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="105"/>
+      <c r="G35" s="111"/>
       <c r="H35" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="105"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="105" t="s">
+      <c r="F36" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="105"/>
+      <c r="G36" s="111"/>
       <c r="H36" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
@@ -7131,37 +7360,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="115"/>
+      <c r="C1" s="121"/>
     </row>
     <row r="2" spans="1:10" ht="17.25">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117"/>
+      <c r="B3" s="123"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="117"/>
+      <c r="G3" s="123"/>
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
@@ -7170,17 +7399,17 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="121"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="122" t="s">
+      <c r="F4" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="122"/>
+      <c r="G4" s="128"/>
       <c r="H4" s="8" t="s">
         <v>6</v>
       </c>
@@ -7227,28 +7456,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="115"/>
+      <c r="E1" s="121"/>
     </row>
     <row r="2" spans="1:8" ht="17.25">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="116" t="s">
+      <c r="E2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="116"/>
+      <c r="F2" s="122"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117"/>
+      <c r="B3" s="123"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -7264,10 +7493,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="105"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
@@ -7286,10 +7515,10 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="105"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
@@ -7308,10 +7537,10 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
@@ -7330,10 +7559,10 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="107"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
@@ -7352,10 +7581,10 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="105"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
@@ -7374,10 +7603,10 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="107"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
@@ -7396,10 +7625,10 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="105"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
@@ -7418,10 +7647,10 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="107"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
@@ -7439,10 +7668,10 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="105"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
@@ -7461,10 +7690,10 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="107"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
@@ -7483,10 +7712,10 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="105"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
@@ -7505,10 +7734,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="30">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="107"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="5" t="s">
         <v>6</v>
       </c>
@@ -7527,10 +7756,10 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
@@ -7549,10 +7778,10 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="107"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
@@ -7571,10 +7800,10 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="107"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
@@ -7593,10 +7822,10 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="107" t="s">
+      <c r="A19" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="107"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="5" t="s">
         <v>6</v>
       </c>
@@ -7615,10 +7844,10 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="107"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="5" t="s">
         <v>6</v>
       </c>
@@ -7637,10 +7866,10 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="107"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
@@ -7659,10 +7888,10 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="107"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="5" t="s">
         <v>6</v>
       </c>
@@ -7681,10 +7910,10 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="107"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
@@ -7703,10 +7932,10 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="107"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
@@ -7725,10 +7954,10 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="113" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="107"/>
+      <c r="B25" s="113"/>
       <c r="C25" s="5" t="s">
         <v>6</v>
       </c>
@@ -7747,10 +7976,10 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="107" t="s">
+      <c r="A26" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="107"/>
+      <c r="B26" s="113"/>
       <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
@@ -7769,10 +7998,10 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="107" t="s">
+      <c r="A27" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="107"/>
+      <c r="B27" s="113"/>
       <c r="C27" s="5" t="s">
         <v>6</v>
       </c>
@@ -7791,10 +8020,10 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="107" t="s">
+      <c r="A28" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="107"/>
+      <c r="B28" s="113"/>
       <c r="C28" s="5" t="s">
         <v>6</v>
       </c>
@@ -7813,10 +8042,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="30">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="B29" s="107"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="5" t="s">
         <v>6</v>
       </c>
@@ -7835,10 +8064,10 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="107" t="s">
+      <c r="A30" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="107"/>
+      <c r="B30" s="113"/>
       <c r="C30" s="5" t="s">
         <v>6</v>
       </c>
@@ -7857,10 +8086,10 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="107" t="s">
+      <c r="A31" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="107"/>
+      <c r="B31" s="113"/>
       <c r="C31" s="5" t="s">
         <v>6</v>
       </c>
@@ -7879,10 +8108,10 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="B32" s="107"/>
+      <c r="B32" s="113"/>
       <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
@@ -7901,10 +8130,10 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="107" t="s">
+      <c r="A33" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="107"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="5" t="s">
         <v>6</v>
       </c>
@@ -7923,10 +8152,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="30">
-      <c r="A34" s="107" t="s">
+      <c r="A34" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="107"/>
+      <c r="B34" s="113"/>
       <c r="C34" s="5" t="s">
         <v>6</v>
       </c>
@@ -7945,10 +8174,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="30">
-      <c r="A35" s="107" t="s">
+      <c r="A35" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="107"/>
+      <c r="B35" s="113"/>
       <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
@@ -7967,10 +8196,10 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="B36" s="107"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="5" t="s">
         <v>6</v>
       </c>
@@ -7989,10 +8218,10 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="107" t="s">
+      <c r="A37" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="107"/>
+      <c r="B37" s="113"/>
       <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
@@ -8011,10 +8240,10 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="107" t="s">
+      <c r="A38" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="107"/>
+      <c r="B38" s="113"/>
       <c r="C38" s="5" t="s">
         <v>6</v>
       </c>
@@ -8033,10 +8262,10 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="107" t="s">
+      <c r="A39" s="113" t="s">
         <v>154</v>
       </c>
-      <c r="B39" s="107"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="5" t="s">
         <v>6</v>
       </c>
@@ -8055,10 +8284,10 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="107" t="s">
+      <c r="A40" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="B40" s="107"/>
+      <c r="B40" s="113"/>
       <c r="C40" s="5" t="s">
         <v>6</v>
       </c>
@@ -8077,10 +8306,10 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="107" t="s">
+      <c r="A41" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="107"/>
+      <c r="B41" s="113"/>
       <c r="C41" s="5" t="s">
         <v>6</v>
       </c>
@@ -8099,10 +8328,10 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="107" t="s">
+      <c r="A42" s="113" t="s">
         <v>157</v>
       </c>
-      <c r="B42" s="107"/>
+      <c r="B42" s="113"/>
       <c r="C42" s="5" t="s">
         <v>6</v>
       </c>
@@ -8121,10 +8350,10 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="123" t="s">
+      <c r="A43" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="123"/>
+      <c r="B43" s="129"/>
       <c r="C43" s="5" t="s">
         <v>6</v>
       </c>
@@ -8143,10 +8372,10 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="107" t="s">
+      <c r="A44" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="B44" s="107"/>
+      <c r="B44" s="113"/>
       <c r="C44" s="5" t="s">
         <v>6</v>
       </c>
@@ -8165,10 +8394,10 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="107" t="s">
+      <c r="A45" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="107"/>
+      <c r="B45" s="113"/>
       <c r="C45" s="5" t="s">
         <v>6</v>
       </c>
@@ -8187,10 +8416,10 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="107" t="s">
+      <c r="A46" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="107"/>
+      <c r="B46" s="113"/>
       <c r="C46" s="5" t="s">
         <v>6</v>
       </c>
@@ -8209,10 +8438,10 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="107" t="s">
+      <c r="A47" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="107"/>
+      <c r="B47" s="113"/>
       <c r="C47" s="5" t="s">
         <v>6</v>
       </c>
@@ -8231,10 +8460,10 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="107" t="s">
+      <c r="A48" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="B48" s="107"/>
+      <c r="B48" s="113"/>
       <c r="C48" s="5" t="s">
         <v>6</v>
       </c>
@@ -8253,10 +8482,10 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="107" t="s">
+      <c r="A49" s="113" t="s">
         <v>166</v>
       </c>
-      <c r="B49" s="107"/>
+      <c r="B49" s="113"/>
       <c r="C49" s="5" t="s">
         <v>6</v>
       </c>
@@ -8275,10 +8504,10 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="107" t="s">
+      <c r="A50" s="113" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="107"/>
+      <c r="B50" s="113"/>
       <c r="C50" s="5" t="s">
         <v>6</v>
       </c>
@@ -8297,10 +8526,10 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="30">
-      <c r="A51" s="107" t="s">
+      <c r="A51" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="B51" s="107"/>
+      <c r="B51" s="113"/>
       <c r="C51" s="5" t="s">
         <v>6</v>
       </c>
@@ -8319,10 +8548,10 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="107" t="s">
+      <c r="A52" s="113" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="107"/>
+      <c r="B52" s="113"/>
       <c r="C52" s="5" t="s">
         <v>6</v>
       </c>
@@ -8341,10 +8570,10 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="107" t="s">
+      <c r="A53" s="113" t="s">
         <v>170</v>
       </c>
-      <c r="B53" s="107"/>
+      <c r="B53" s="113"/>
       <c r="C53" s="5" t="s">
         <v>6</v>
       </c>
@@ -8363,10 +8592,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="30">
-      <c r="A54" s="107" t="s">
+      <c r="A54" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="B54" s="107"/>
+      <c r="B54" s="113"/>
       <c r="C54" s="5" t="s">
         <v>6</v>
       </c>
@@ -8385,10 +8614,10 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="107" t="s">
+      <c r="A55" s="113" t="s">
         <v>172</v>
       </c>
-      <c r="B55" s="107"/>
+      <c r="B55" s="113"/>
       <c r="C55" s="5" t="s">
         <v>6</v>
       </c>
@@ -8407,10 +8636,10 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="107" t="s">
+      <c r="A56" s="113" t="s">
         <v>173</v>
       </c>
-      <c r="B56" s="107"/>
+      <c r="B56" s="113"/>
       <c r="C56" s="5" t="s">
         <v>6</v>
       </c>
@@ -8429,10 +8658,10 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="107" t="s">
+      <c r="A57" s="113" t="s">
         <v>174</v>
       </c>
-      <c r="B57" s="107"/>
+      <c r="B57" s="113"/>
       <c r="C57" s="5" t="s">
         <v>6</v>
       </c>
@@ -8451,10 +8680,10 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="107" t="s">
+      <c r="A58" s="113" t="s">
         <v>175</v>
       </c>
-      <c r="B58" s="107"/>
+      <c r="B58" s="113"/>
       <c r="C58" s="5" t="s">
         <v>6</v>
       </c>
@@ -8473,10 +8702,10 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="107" t="s">
+      <c r="A59" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="B59" s="107"/>
+      <c r="B59" s="113"/>
       <c r="C59" s="5" t="s">
         <v>6</v>
       </c>
@@ -8495,10 +8724,10 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="113" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="107"/>
+      <c r="B60" s="113"/>
       <c r="C60" s="5" t="s">
         <v>6</v>
       </c>
@@ -8517,10 +8746,10 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="107" t="s">
+      <c r="A61" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="B61" s="107"/>
+      <c r="B61" s="113"/>
       <c r="C61" s="5" t="s">
         <v>6</v>
       </c>
@@ -8539,10 +8768,10 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="107" t="s">
+      <c r="A62" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="107"/>
+      <c r="B62" s="113"/>
       <c r="C62" s="5" t="s">
         <v>6</v>
       </c>
@@ -8560,10 +8789,10 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="107" t="s">
+      <c r="A63" s="113" t="s">
         <v>183</v>
       </c>
-      <c r="B63" s="107"/>
+      <c r="B63" s="113"/>
       <c r="C63" s="5" t="s">
         <v>6</v>
       </c>
@@ -8582,10 +8811,10 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="107" t="s">
+      <c r="A64" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="B64" s="107"/>
+      <c r="B64" s="113"/>
       <c r="C64" s="5" t="s">
         <v>6</v>
       </c>
@@ -8604,10 +8833,10 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="107" t="s">
+      <c r="A65" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="B65" s="107"/>
+      <c r="B65" s="113"/>
       <c r="C65" s="5" t="s">
         <v>6</v>
       </c>
@@ -8626,10 +8855,10 @@
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="107" t="s">
+      <c r="A66" s="113" t="s">
         <v>186</v>
       </c>
-      <c r="B66" s="107"/>
+      <c r="B66" s="113"/>
       <c r="C66" s="5" t="s">
         <v>6</v>
       </c>
@@ -8648,10 +8877,10 @@
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="107" t="s">
+      <c r="A67" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="B67" s="107"/>
+      <c r="B67" s="113"/>
       <c r="C67" s="5" t="s">
         <v>6</v>
       </c>
@@ -8670,10 +8899,10 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="107" t="s">
+      <c r="A68" s="113" t="s">
         <v>188</v>
       </c>
-      <c r="B68" s="107"/>
+      <c r="B68" s="113"/>
       <c r="C68" s="5" t="s">
         <v>6</v>
       </c>
@@ -8692,10 +8921,10 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="107" t="s">
+      <c r="A69" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="B69" s="107"/>
+      <c r="B69" s="113"/>
       <c r="C69" s="5" t="s">
         <v>6</v>
       </c>
@@ -8714,10 +8943,10 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="107" t="s">
+      <c r="A70" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="B70" s="107"/>
+      <c r="B70" s="113"/>
       <c r="C70" s="5" t="s">
         <v>6</v>
       </c>
@@ -8736,10 +8965,10 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="107" t="s">
+      <c r="A71" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="B71" s="107"/>
+      <c r="B71" s="113"/>
       <c r="C71" s="5" t="s">
         <v>6</v>
       </c>
@@ -8758,10 +8987,10 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="107" t="s">
+      <c r="A72" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="B72" s="107"/>
+      <c r="B72" s="113"/>
       <c r="C72" s="5" t="s">
         <v>6</v>
       </c>
@@ -8780,10 +9009,10 @@
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="107" t="s">
+      <c r="A73" s="113" t="s">
         <v>194</v>
       </c>
-      <c r="B73" s="107"/>
+      <c r="B73" s="113"/>
       <c r="C73" s="5" t="s">
         <v>6</v>
       </c>
@@ -8802,10 +9031,10 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="107" t="s">
+      <c r="A74" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="B74" s="107"/>
+      <c r="B74" s="113"/>
       <c r="C74" s="5" t="s">
         <v>6</v>
       </c>
@@ -8824,10 +9053,10 @@
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="107" t="s">
+      <c r="A75" s="113" t="s">
         <v>197</v>
       </c>
-      <c r="B75" s="107"/>
+      <c r="B75" s="113"/>
       <c r="C75" s="5" t="s">
         <v>6</v>
       </c>
@@ -8846,10 +9075,10 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="107" t="s">
+      <c r="A76" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B76" s="107"/>
+      <c r="B76" s="113"/>
       <c r="C76" s="5" t="s">
         <v>6</v>
       </c>
@@ -8868,10 +9097,10 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="107" t="s">
+      <c r="A77" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="B77" s="107"/>
+      <c r="B77" s="113"/>
       <c r="C77" s="5" t="s">
         <v>6</v>
       </c>
@@ -8890,10 +9119,10 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="107" t="s">
+      <c r="A78" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="B78" s="107"/>
+      <c r="B78" s="113"/>
       <c r="C78" s="5" t="s">
         <v>6</v>
       </c>
@@ -8912,10 +9141,10 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="107" t="s">
+      <c r="A79" s="113" t="s">
         <v>202</v>
       </c>
-      <c r="B79" s="107"/>
+      <c r="B79" s="113"/>
       <c r="C79" s="5" t="s">
         <v>6</v>
       </c>
@@ -8934,10 +9163,10 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="107" t="s">
+      <c r="A80" s="113" t="s">
         <v>205</v>
       </c>
-      <c r="B80" s="107"/>
+      <c r="B80" s="113"/>
       <c r="C80" s="5" t="s">
         <v>6</v>
       </c>
@@ -8956,10 +9185,10 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="107" t="s">
+      <c r="A81" s="113" t="s">
         <v>206</v>
       </c>
-      <c r="B81" s="107"/>
+      <c r="B81" s="113"/>
       <c r="C81" s="5" t="s">
         <v>6</v>
       </c>
@@ -8978,10 +9207,10 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="107" t="s">
+      <c r="A82" s="113" t="s">
         <v>207</v>
       </c>
-      <c r="B82" s="107"/>
+      <c r="B82" s="113"/>
       <c r="C82" s="5" t="s">
         <v>6</v>
       </c>
@@ -9000,10 +9229,10 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="107" t="s">
+      <c r="A83" s="113" t="s">
         <v>208</v>
       </c>
-      <c r="B83" s="107"/>
+      <c r="B83" s="113"/>
       <c r="C83" s="5" t="s">
         <v>6</v>
       </c>
@@ -9022,10 +9251,10 @@
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="107" t="s">
+      <c r="A84" s="113" t="s">
         <v>209</v>
       </c>
-      <c r="B84" s="107"/>
+      <c r="B84" s="113"/>
       <c r="C84" s="5" t="s">
         <v>6</v>
       </c>
@@ -9043,10 +9272,10 @@
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="107" t="s">
+      <c r="A85" s="113" t="s">
         <v>210</v>
       </c>
-      <c r="B85" s="107"/>
+      <c r="B85" s="113"/>
       <c r="C85" s="5" t="s">
         <v>6</v>
       </c>
@@ -9065,10 +9294,10 @@
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="107" t="s">
+      <c r="A86" s="113" t="s">
         <v>211</v>
       </c>
-      <c r="B86" s="107"/>
+      <c r="B86" s="113"/>
       <c r="C86" s="5" t="s">
         <v>6</v>
       </c>
@@ -9087,10 +9316,10 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="107" t="s">
+      <c r="A87" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="B87" s="107"/>
+      <c r="B87" s="113"/>
       <c r="C87" s="5" t="s">
         <v>6</v>
       </c>
@@ -9109,10 +9338,10 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="107" t="s">
+      <c r="A88" s="113" t="s">
         <v>214</v>
       </c>
-      <c r="B88" s="107"/>
+      <c r="B88" s="113"/>
       <c r="C88" s="5" t="s">
         <v>6</v>
       </c>
@@ -9130,10 +9359,10 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="107" t="s">
+      <c r="A89" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="B89" s="107"/>
+      <c r="B89" s="113"/>
       <c r="C89" s="5" t="s">
         <v>6</v>
       </c>
@@ -9151,10 +9380,10 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="107" t="s">
+      <c r="A90" s="113" t="s">
         <v>216</v>
       </c>
-      <c r="B90" s="107"/>
+      <c r="B90" s="113"/>
       <c r="C90" s="5" t="s">
         <v>6</v>
       </c>
@@ -9173,10 +9402,10 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="107" t="s">
+      <c r="A91" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="B91" s="107"/>
+      <c r="B91" s="113"/>
       <c r="C91" s="5" t="s">
         <v>6</v>
       </c>
@@ -9195,10 +9424,10 @@
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="107" t="s">
+      <c r="A92" s="113" t="s">
         <v>223</v>
       </c>
-      <c r="B92" s="107"/>
+      <c r="B92" s="113"/>
       <c r="C92" s="5" t="s">
         <v>6</v>
       </c>
@@ -9217,10 +9446,10 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="107" t="s">
+      <c r="A93" s="113" t="s">
         <v>225</v>
       </c>
-      <c r="B93" s="107"/>
+      <c r="B93" s="113"/>
       <c r="C93" s="5" t="s">
         <v>6</v>
       </c>
@@ -9239,10 +9468,10 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="107" t="s">
+      <c r="A94" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="B94" s="107"/>
+      <c r="B94" s="113"/>
       <c r="C94" s="5" t="s">
         <v>6</v>
       </c>
@@ -9261,10 +9490,10 @@
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="107" t="s">
+      <c r="A95" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="B95" s="107"/>
+      <c r="B95" s="113"/>
       <c r="C95" s="5" t="s">
         <v>6</v>
       </c>
@@ -9283,10 +9512,10 @@
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="107" t="s">
+      <c r="A96" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="B96" s="107"/>
+      <c r="B96" s="113"/>
       <c r="C96" s="5" t="s">
         <v>6</v>
       </c>
@@ -9305,10 +9534,10 @@
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="107" t="s">
+      <c r="A97" s="113" t="s">
         <v>230</v>
       </c>
-      <c r="B97" s="107"/>
+      <c r="B97" s="113"/>
       <c r="C97" s="5" t="s">
         <v>6</v>
       </c>
@@ -9327,10 +9556,10 @@
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="107" t="s">
+      <c r="A98" s="113" t="s">
         <v>231</v>
       </c>
-      <c r="B98" s="107"/>
+      <c r="B98" s="113"/>
       <c r="C98" s="5" t="s">
         <v>6</v>
       </c>
@@ -9349,10 +9578,10 @@
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="107" t="s">
+      <c r="A99" s="113" t="s">
         <v>235</v>
       </c>
-      <c r="B99" s="107"/>
+      <c r="B99" s="113"/>
       <c r="C99" s="5" t="s">
         <v>6</v>
       </c>
@@ -9371,10 +9600,10 @@
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="107" t="s">
+      <c r="A100" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="B100" s="107"/>
+      <c r="B100" s="113"/>
       <c r="C100" s="5" t="s">
         <v>6</v>
       </c>
@@ -9393,10 +9622,10 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="107" t="s">
+      <c r="A101" s="113" t="s">
         <v>239</v>
       </c>
-      <c r="B101" s="107"/>
+      <c r="B101" s="113"/>
       <c r="C101" s="5" t="s">
         <v>6</v>
       </c>
@@ -9415,10 +9644,10 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="107" t="s">
+      <c r="A102" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="B102" s="107"/>
+      <c r="B102" s="113"/>
       <c r="C102" s="5" t="s">
         <v>6</v>
       </c>
@@ -9437,10 +9666,10 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="107" t="s">
+      <c r="A103" s="113" t="s">
         <v>243</v>
       </c>
-      <c r="B103" s="107"/>
+      <c r="B103" s="113"/>
       <c r="C103" s="5" t="s">
         <v>6</v>
       </c>
@@ -9459,10 +9688,10 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="107" t="s">
+      <c r="A104" s="113" t="s">
         <v>244</v>
       </c>
-      <c r="B104" s="107"/>
+      <c r="B104" s="113"/>
       <c r="C104" s="5" t="s">
         <v>6</v>
       </c>
@@ -9481,10 +9710,10 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="107" t="s">
+      <c r="A105" s="113" t="s">
         <v>245</v>
       </c>
-      <c r="B105" s="107"/>
+      <c r="B105" s="113"/>
       <c r="C105" s="5" t="s">
         <v>6</v>
       </c>
@@ -9503,10 +9732,10 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="107" t="s">
+      <c r="A106" s="113" t="s">
         <v>250</v>
       </c>
-      <c r="B106" s="107"/>
+      <c r="B106" s="113"/>
       <c r="C106" s="5" t="s">
         <v>6</v>
       </c>
@@ -9525,10 +9754,10 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="107" t="s">
+      <c r="A107" s="113" t="s">
         <v>247</v>
       </c>
-      <c r="B107" s="107"/>
+      <c r="B107" s="113"/>
       <c r="C107" s="5" t="s">
         <v>6</v>
       </c>
@@ -9547,10 +9776,10 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="107" t="s">
+      <c r="A108" s="113" t="s">
         <v>249</v>
       </c>
-      <c r="B108" s="107"/>
+      <c r="B108" s="113"/>
       <c r="C108" s="5" t="s">
         <v>6</v>
       </c>
@@ -9562,10 +9791,10 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="107" t="s">
+      <c r="A109" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="B109" s="107"/>
+      <c r="B109" s="113"/>
       <c r="C109" s="5" t="s">
         <v>6</v>
       </c>
@@ -9577,10 +9806,10 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="107" t="s">
+      <c r="A110" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="B110" s="107"/>
+      <c r="B110" s="113"/>
       <c r="C110" s="11" t="s">
         <v>46</v>
       </c>
@@ -9592,10 +9821,10 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="107" t="s">
+      <c r="A111" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="107"/>
+      <c r="B111" s="113"/>
       <c r="C111" s="11" t="s">
         <v>46</v>
       </c>
@@ -9607,10 +9836,10 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="107" t="s">
+      <c r="A112" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="B112" s="107"/>
+      <c r="B112" s="113"/>
       <c r="C112" s="11" t="s">
         <v>46</v>
       </c>
@@ -9622,10 +9851,10 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="107" t="s">
+      <c r="A113" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="B113" s="107"/>
+      <c r="B113" s="113"/>
       <c r="C113" s="11" t="s">
         <v>46</v>
       </c>
@@ -9637,10 +9866,10 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="107" t="s">
+      <c r="A114" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="B114" s="107"/>
+      <c r="B114" s="113"/>
       <c r="C114" s="11" t="s">
         <v>46</v>
       </c>
@@ -9652,10 +9881,10 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="107" t="s">
+      <c r="A115" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="B115" s="107"/>
+      <c r="B115" s="113"/>
       <c r="C115" s="11" t="s">
         <v>46</v>
       </c>
@@ -9667,10 +9896,10 @@
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="107" t="s">
+      <c r="A116" s="113" t="s">
         <v>179</v>
       </c>
-      <c r="B116" s="107"/>
+      <c r="B116" s="113"/>
       <c r="C116" s="11" t="s">
         <v>46</v>
       </c>
@@ -9682,10 +9911,10 @@
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="107" t="s">
+      <c r="A117" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="B117" s="107"/>
+      <c r="B117" s="113"/>
       <c r="C117" s="11" t="s">
         <v>46</v>
       </c>
@@ -9697,10 +9926,10 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="107" t="s">
+      <c r="A118" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="B118" s="107"/>
+      <c r="B118" s="113"/>
       <c r="C118" s="11" t="s">
         <v>46</v>
       </c>
@@ -9712,10 +9941,10 @@
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="107" t="s">
+      <c r="A119" s="113" t="s">
         <v>204</v>
       </c>
-      <c r="B119" s="107"/>
+      <c r="B119" s="113"/>
       <c r="C119" s="11" t="s">
         <v>46</v>
       </c>
@@ -9727,10 +9956,10 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="107" t="s">
+      <c r="A120" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="B120" s="107"/>
+      <c r="B120" s="113"/>
       <c r="C120" s="11" t="s">
         <v>46</v>
       </c>
@@ -9742,10 +9971,10 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="107" t="s">
+      <c r="A121" s="113" t="s">
         <v>222</v>
       </c>
-      <c r="B121" s="107"/>
+      <c r="B121" s="113"/>
       <c r="C121" s="11" t="s">
         <v>46</v>
       </c>
@@ -9757,10 +9986,10 @@
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="107" t="s">
+      <c r="A122" s="113" t="s">
         <v>224</v>
       </c>
-      <c r="B122" s="107"/>
+      <c r="B122" s="113"/>
       <c r="C122" s="11" t="s">
         <v>46</v>
       </c>
@@ -9772,10 +10001,10 @@
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="107" t="s">
+      <c r="A123" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="B123" s="107"/>
+      <c r="B123" s="113"/>
       <c r="C123" s="11" t="s">
         <v>46</v>
       </c>
@@ -9787,10 +10016,10 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="107" t="s">
+      <c r="A124" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="B124" s="107"/>
+      <c r="B124" s="113"/>
       <c r="C124" s="11" t="s">
         <v>46</v>
       </c>
@@ -9802,10 +10031,10 @@
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="107" t="s">
+      <c r="A125" s="113" t="s">
         <v>233</v>
       </c>
-      <c r="B125" s="107"/>
+      <c r="B125" s="113"/>
       <c r="C125" s="11" t="s">
         <v>46</v>
       </c>
@@ -9817,10 +10046,10 @@
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="107" t="s">
+      <c r="A126" s="113" t="s">
         <v>236</v>
       </c>
-      <c r="B126" s="107"/>
+      <c r="B126" s="113"/>
       <c r="C126" s="11" t="s">
         <v>46</v>
       </c>
@@ -9832,10 +10061,10 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="107" t="s">
+      <c r="A127" s="113" t="s">
         <v>237</v>
       </c>
-      <c r="B127" s="107"/>
+      <c r="B127" s="113"/>
       <c r="C127" s="11" t="s">
         <v>46</v>
       </c>
@@ -9847,10 +10076,10 @@
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="107" t="s">
+      <c r="A128" s="113" t="s">
         <v>240</v>
       </c>
-      <c r="B128" s="107"/>
+      <c r="B128" s="113"/>
       <c r="C128" s="11" t="s">
         <v>46</v>
       </c>
@@ -9862,10 +10091,10 @@
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="107" t="s">
+      <c r="A129" s="113" t="s">
         <v>242</v>
       </c>
-      <c r="B129" s="107"/>
+      <c r="B129" s="113"/>
       <c r="C129" s="11" t="s">
         <v>46</v>
       </c>
@@ -9877,28 +10106,28 @@
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="107" t="s">
+      <c r="A130" s="113" t="s">
         <v>246</v>
       </c>
-      <c r="B130" s="107"/>
+      <c r="B130" s="113"/>
       <c r="C130" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="107" t="s">
+      <c r="A131" s="113" t="s">
         <v>248</v>
       </c>
-      <c r="B131" s="107"/>
+      <c r="B131" s="113"/>
       <c r="C131" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="107" t="s">
+      <c r="A132" s="113" t="s">
         <v>234</v>
       </c>
-      <c r="B132" s="107"/>
+      <c r="B132" s="113"/>
       <c r="C132" s="18" t="s">
         <v>46</v>
       </c>
@@ -10053,10 +10282,10 @@
   <sheetPr>
     <tabColor theme="3" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A2:Q329"/>
+  <dimension ref="A2:Q350"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A346" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A344" sqref="A344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10076,16 +10305,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="130" t="s">
         <v>979</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:17" ht="63">
@@ -22344,12 +22573,775 @@
       <c r="P329" s="62"/>
       <c r="Q329" s="63"/>
     </row>
+    <row r="330" spans="1:17" ht="140.25">
+      <c r="A330" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B330" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C330" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D330" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="E330" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="F330" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G330" s="38" t="s">
+        <v>980</v>
+      </c>
+      <c r="H330" s="64" t="s">
+        <v>981</v>
+      </c>
+      <c r="I330" s="71" t="str">
+        <f>CONCATENATE("MTC-",G330,"-FT-", F330," ", H330)</f>
+        <v>MTC-1970-FT-REG Validar acceso correcto a BancaNet.</v>
+      </c>
+      <c r="J330" s="105" t="s">
+        <v>982</v>
+      </c>
+      <c r="K330" s="67" t="s">
+        <v>983</v>
+      </c>
+      <c r="L330" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="M330" s="73" t="s">
+        <v>984</v>
+      </c>
+      <c r="N330" s="73" t="s">
+        <v>985</v>
+      </c>
+      <c r="O330" s="79" t="s">
+        <v>310</v>
+      </c>
+      <c r="P330" s="103"/>
+      <c r="Q330" s="104"/>
+    </row>
+    <row r="331" spans="1:17" ht="76.5">
+      <c r="A331" s="57"/>
+      <c r="B331" s="57"/>
+      <c r="C331" s="57"/>
+      <c r="D331" s="57"/>
+      <c r="E331" s="58"/>
+      <c r="F331" s="58"/>
+      <c r="G331" s="58"/>
+      <c r="H331" s="106"/>
+      <c r="I331" s="58"/>
+      <c r="J331" s="58"/>
+      <c r="K331" s="69" t="s">
+        <v>983</v>
+      </c>
+      <c r="L331" s="74" t="s">
+        <v>311</v>
+      </c>
+      <c r="M331" s="61" t="s">
+        <v>986</v>
+      </c>
+      <c r="N331" s="61" t="s">
+        <v>987</v>
+      </c>
+      <c r="O331" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="P331" s="62"/>
+      <c r="Q331" s="63"/>
+    </row>
+    <row r="332" spans="1:17" ht="63.75">
+      <c r="A332" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B332" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C332" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D332" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="E332" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="F332" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G332" s="38" t="s">
+        <v>988</v>
+      </c>
+      <c r="H332" s="64" t="s">
+        <v>989</v>
+      </c>
+      <c r="I332" s="71" t="str">
+        <f>CONCATENATE("MTC-",G332,"-FT-", F332," ", H332)</f>
+        <v>MTC-1980-FT-REG Validar que se realice la captura de firmas para Ejecutivos Banamex.</v>
+      </c>
+      <c r="J332" s="105" t="s">
+        <v>990</v>
+      </c>
+      <c r="K332" s="67" t="s">
+        <v>983</v>
+      </c>
+      <c r="L332" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="M332" s="66" t="s">
+        <v>387</v>
+      </c>
+      <c r="N332" s="66" t="s">
+        <v>388</v>
+      </c>
+      <c r="O332" s="79" t="s">
+        <v>310</v>
+      </c>
+      <c r="P332" s="103"/>
+      <c r="Q332" s="104"/>
+    </row>
+    <row r="333" spans="1:17" ht="89.25">
+      <c r="A333" s="57"/>
+      <c r="B333" s="57"/>
+      <c r="C333" s="57"/>
+      <c r="D333" s="57"/>
+      <c r="E333" s="58"/>
+      <c r="F333" s="58"/>
+      <c r="G333" s="58"/>
+      <c r="H333" s="59"/>
+      <c r="I333" s="58"/>
+      <c r="J333" s="58"/>
+      <c r="K333" s="69" t="s">
+        <v>983</v>
+      </c>
+      <c r="L333" s="74" t="s">
+        <v>311</v>
+      </c>
+      <c r="M333" s="60" t="s">
+        <v>991</v>
+      </c>
+      <c r="N333" s="60" t="s">
+        <v>992</v>
+      </c>
+      <c r="O333" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="P333" s="62"/>
+      <c r="Q333" s="63"/>
+    </row>
+    <row r="334" spans="1:17" ht="114.75">
+      <c r="A334" s="57"/>
+      <c r="B334" s="57"/>
+      <c r="C334" s="57"/>
+      <c r="D334" s="57"/>
+      <c r="E334" s="58"/>
+      <c r="F334" s="58"/>
+      <c r="G334" s="58"/>
+      <c r="H334" s="59"/>
+      <c r="I334" s="58"/>
+      <c r="J334" s="58"/>
+      <c r="K334" s="69" t="s">
+        <v>983</v>
+      </c>
+      <c r="L334" s="74" t="s">
+        <v>323</v>
+      </c>
+      <c r="M334" s="61" t="s">
+        <v>993</v>
+      </c>
+      <c r="N334" s="108" t="s">
+        <v>994</v>
+      </c>
+      <c r="O334" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="P334" s="62"/>
+      <c r="Q334" s="63"/>
+    </row>
+    <row r="335" spans="1:17" ht="51">
+      <c r="A335" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B335" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C335" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D335" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="E335" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="F335" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G335" s="38" t="s">
+        <v>995</v>
+      </c>
+      <c r="H335" s="109" t="s">
+        <v>996</v>
+      </c>
+      <c r="I335" s="71" t="str">
+        <f>CONCATENATE("MTC-",G335,"-FT-", F335," ", H335)</f>
+        <v>MTC-1990-FT-REG Validar que se graben las firmas de los representantes de la empresa.</v>
+      </c>
+      <c r="J335" s="105" t="s">
+        <v>997</v>
+      </c>
+      <c r="K335" s="67" t="s">
+        <v>983</v>
+      </c>
+      <c r="L335" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="M335" s="66" t="s">
+        <v>660</v>
+      </c>
+      <c r="N335" s="66" t="s">
+        <v>684</v>
+      </c>
+      <c r="O335" s="79" t="s">
+        <v>310</v>
+      </c>
+      <c r="P335" s="103"/>
+      <c r="Q335" s="104"/>
+    </row>
+    <row r="336" spans="1:17" ht="102">
+      <c r="A336" s="57"/>
+      <c r="B336" s="57"/>
+      <c r="C336" s="57"/>
+      <c r="D336" s="57"/>
+      <c r="E336" s="58"/>
+      <c r="F336" s="58"/>
+      <c r="G336" s="58"/>
+      <c r="H336" s="59"/>
+      <c r="I336" s="58"/>
+      <c r="J336" s="58"/>
+      <c r="K336" s="69" t="s">
+        <v>983</v>
+      </c>
+      <c r="L336" s="74" t="s">
+        <v>311</v>
+      </c>
+      <c r="M336" s="61" t="s">
+        <v>998</v>
+      </c>
+      <c r="N336" s="61" t="s">
+        <v>999</v>
+      </c>
+      <c r="O336" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="P336" s="62"/>
+      <c r="Q336" s="63"/>
+    </row>
+    <row r="337" spans="1:17" ht="76.5">
+      <c r="A337" s="57"/>
+      <c r="B337" s="57"/>
+      <c r="C337" s="57"/>
+      <c r="D337" s="57"/>
+      <c r="E337" s="58"/>
+      <c r="F337" s="58"/>
+      <c r="G337" s="58"/>
+      <c r="H337" s="59"/>
+      <c r="I337" s="58"/>
+      <c r="J337" s="58"/>
+      <c r="K337" s="69" t="s">
+        <v>983</v>
+      </c>
+      <c r="L337" s="74" t="s">
+        <v>323</v>
+      </c>
+      <c r="M337" s="61" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N337" s="61" t="s">
+        <v>1001</v>
+      </c>
+      <c r="O337" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="P337" s="62"/>
+      <c r="Q337" s="63"/>
+    </row>
+    <row r="338" spans="1:17" ht="51">
+      <c r="A338" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B338" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C338" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D338" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="E338" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="F338" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G338" s="38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H338" s="109" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I338" s="71" t="str">
+        <f>CONCATENATE("MTC-",G338,"-FT-", F338," ", H338)</f>
+        <v>MTC-2000-FT-REG Validar que se muestre la pantalla para dar de alta una empresa correctamente.</v>
+      </c>
+      <c r="J338" s="105" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K338" s="67" t="s">
+        <v>983</v>
+      </c>
+      <c r="L338" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="M338" s="66" t="s">
+        <v>660</v>
+      </c>
+      <c r="N338" s="66" t="s">
+        <v>684</v>
+      </c>
+      <c r="O338" s="79" t="s">
+        <v>310</v>
+      </c>
+      <c r="P338" s="103"/>
+      <c r="Q338" s="104"/>
+    </row>
+    <row r="339" spans="1:17" ht="89.25">
+      <c r="A339" s="57"/>
+      <c r="B339" s="57"/>
+      <c r="C339" s="57"/>
+      <c r="D339" s="57"/>
+      <c r="E339" s="58"/>
+      <c r="F339" s="58"/>
+      <c r="G339" s="58"/>
+      <c r="H339" s="59"/>
+      <c r="I339" s="58"/>
+      <c r="J339" s="58"/>
+      <c r="K339" s="69" t="s">
+        <v>983</v>
+      </c>
+      <c r="L339" s="74" t="s">
+        <v>311</v>
+      </c>
+      <c r="M339" s="61" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N339" s="61" t="s">
+        <v>1006</v>
+      </c>
+      <c r="O339" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="P339" s="62"/>
+      <c r="Q339" s="63"/>
+    </row>
+    <row r="340" spans="1:17" ht="153">
+      <c r="A340" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B340" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C340" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D340" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="E340" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="F340" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G340" s="38" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H340" s="109" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I340" s="71" t="str">
+        <f>CONCATENATE("MTC-",G340,"-FT-", F340," ", H340)</f>
+        <v>MTC-2010-FT-REG Validar que se muestren los mensajes correspodientes de acuerdo a lo que se este realizando.</v>
+      </c>
+      <c r="J340" s="105" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K340" s="67" t="s">
+        <v>983</v>
+      </c>
+      <c r="L340" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="M340" s="66" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N340" s="66" t="s">
+        <v>1011</v>
+      </c>
+      <c r="O340" s="79" t="s">
+        <v>310</v>
+      </c>
+      <c r="P340" s="103"/>
+      <c r="Q340" s="104"/>
+    </row>
+    <row r="341" spans="1:17" ht="114.75">
+      <c r="A341" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B341" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C341" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D341" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="E341" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="F341" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G341" s="38" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H341" s="109" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I341" s="71" t="str">
+        <f>CONCATENATE("MTC-",G341,"-FT-", F341," ", H341)</f>
+        <v>MTC-2020-FT-REG Validar que se llenen correctamente los ComboBox</v>
+      </c>
+      <c r="J341" s="105" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K341" s="67" t="s">
+        <v>983</v>
+      </c>
+      <c r="L341" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="M341" s="73" t="s">
+        <v>1015</v>
+      </c>
+      <c r="N341" s="110" t="s">
+        <v>1016</v>
+      </c>
+      <c r="O341" s="79" t="s">
+        <v>310</v>
+      </c>
+      <c r="P341" s="103"/>
+      <c r="Q341" s="104"/>
+    </row>
+    <row r="342" spans="1:17" ht="88.5" customHeight="1">
+      <c r="A342" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B342" s="131" t="s">
+        <v>300</v>
+      </c>
+      <c r="C342" s="131" t="s">
+        <v>301</v>
+      </c>
+      <c r="D342" s="131" t="s">
+        <v>302</v>
+      </c>
+      <c r="E342" s="131" t="s">
+        <v>303</v>
+      </c>
+      <c r="F342" s="132" t="s">
+        <v>304</v>
+      </c>
+      <c r="G342" s="132">
+        <v>2030</v>
+      </c>
+      <c r="H342" s="131" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I342" s="131" t="str">
+        <f>CONCATENATE("MTC-",G342,"-FT-", F342," ", H342)</f>
+        <v>MTC-2030-FT-REG Valida credenciales para ingreso al sistema</v>
+      </c>
+      <c r="J342" s="131" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K342" s="133">
+        <v>43956</v>
+      </c>
+      <c r="L342" s="132" t="s">
+        <v>307</v>
+      </c>
+      <c r="M342" s="131" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N342" s="131" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O342" s="131" t="s">
+        <v>768</v>
+      </c>
+      <c r="P342" s="131"/>
+      <c r="Q342" s="131"/>
+    </row>
+    <row r="343" spans="1:17" ht="45">
+      <c r="A343" s="95"/>
+      <c r="B343" s="96"/>
+      <c r="C343" s="96"/>
+      <c r="D343" s="96"/>
+      <c r="E343" s="96"/>
+      <c r="F343" s="102"/>
+      <c r="G343" s="102"/>
+      <c r="H343" s="96"/>
+      <c r="I343" s="98"/>
+      <c r="J343" s="134"/>
+      <c r="K343" s="135"/>
+      <c r="L343" s="136" t="s">
+        <v>311</v>
+      </c>
+      <c r="M343" s="134" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N343" s="134" t="s">
+        <v>1022</v>
+      </c>
+      <c r="O343" s="96" t="s">
+        <v>768</v>
+      </c>
+      <c r="P343" s="134"/>
+      <c r="Q343" s="137"/>
+    </row>
+    <row r="344" spans="1:17" ht="45">
+      <c r="A344" s="95"/>
+      <c r="B344" s="96"/>
+      <c r="C344" s="96"/>
+      <c r="D344" s="96"/>
+      <c r="E344" s="96"/>
+      <c r="F344" s="102"/>
+      <c r="G344" s="102"/>
+      <c r="H344" s="96"/>
+      <c r="I344" s="98"/>
+      <c r="J344" s="134"/>
+      <c r="K344" s="135"/>
+      <c r="L344" s="136" t="s">
+        <v>323</v>
+      </c>
+      <c r="M344" s="134" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N344" s="134" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O344" s="96" t="s">
+        <v>768</v>
+      </c>
+      <c r="P344" s="134"/>
+      <c r="Q344" s="137"/>
+    </row>
+    <row r="345" spans="1:17" ht="90">
+      <c r="A345" s="95"/>
+      <c r="B345" s="96"/>
+      <c r="C345" s="96"/>
+      <c r="D345" s="96"/>
+      <c r="E345" s="96"/>
+      <c r="F345" s="102"/>
+      <c r="G345" s="102"/>
+      <c r="H345" s="96"/>
+      <c r="I345" s="98"/>
+      <c r="J345" s="134"/>
+      <c r="K345" s="135"/>
+      <c r="L345" s="136" t="s">
+        <v>326</v>
+      </c>
+      <c r="M345" s="134" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N345" s="134" t="s">
+        <v>1026</v>
+      </c>
+      <c r="O345" s="96" t="s">
+        <v>768</v>
+      </c>
+      <c r="P345" s="134"/>
+      <c r="Q345" s="137"/>
+    </row>
+    <row r="346" spans="1:17" ht="60">
+      <c r="A346" s="95"/>
+      <c r="B346" s="96"/>
+      <c r="C346" s="96"/>
+      <c r="D346" s="96"/>
+      <c r="E346" s="96"/>
+      <c r="F346" s="102"/>
+      <c r="G346" s="102"/>
+      <c r="H346" s="96"/>
+      <c r="I346" s="98"/>
+      <c r="J346" s="134"/>
+      <c r="K346" s="135"/>
+      <c r="L346" s="136" t="s">
+        <v>341</v>
+      </c>
+      <c r="M346" s="134" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N346" s="134" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O346" s="96" t="s">
+        <v>768</v>
+      </c>
+      <c r="P346" s="134"/>
+      <c r="Q346" s="137"/>
+    </row>
+    <row r="347" spans="1:17" ht="30">
+      <c r="A347" s="95"/>
+      <c r="B347" s="96"/>
+      <c r="C347" s="96"/>
+      <c r="D347" s="96"/>
+      <c r="E347" s="96"/>
+      <c r="F347" s="102"/>
+      <c r="G347" s="102"/>
+      <c r="H347" s="96"/>
+      <c r="I347" s="98"/>
+      <c r="J347" s="134"/>
+      <c r="K347" s="135"/>
+      <c r="L347" s="136" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M347" s="134" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N347" s="134" t="s">
+        <v>1031</v>
+      </c>
+      <c r="O347" s="96" t="s">
+        <v>768</v>
+      </c>
+      <c r="P347" s="134"/>
+      <c r="Q347" s="137"/>
+    </row>
+    <row r="348" spans="1:17" ht="96" customHeight="1">
+      <c r="A348" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B348" s="131" t="s">
+        <v>300</v>
+      </c>
+      <c r="C348" s="131" t="s">
+        <v>301</v>
+      </c>
+      <c r="D348" s="131" t="s">
+        <v>302</v>
+      </c>
+      <c r="E348" s="131" t="s">
+        <v>303</v>
+      </c>
+      <c r="F348" s="132" t="s">
+        <v>304</v>
+      </c>
+      <c r="G348" s="132">
+        <v>2040</v>
+      </c>
+      <c r="H348" s="131" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I348" s="131" t="str">
+        <f>CONCATENATE("MTC-",G348,"-FT-", F348," ", H348)</f>
+        <v>MTC-2040-FT-REG Obtiene valores para variables globales</v>
+      </c>
+      <c r="J348" s="131" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K348" s="133">
+        <v>43956</v>
+      </c>
+      <c r="L348" s="132" t="s">
+        <v>307</v>
+      </c>
+      <c r="M348" s="131" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N348" s="131" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O348" s="131" t="s">
+        <v>768</v>
+      </c>
+      <c r="P348" s="131"/>
+      <c r="Q348" s="131"/>
+    </row>
+    <row r="349" spans="1:17" ht="75">
+      <c r="A349" s="95"/>
+      <c r="B349" s="96"/>
+      <c r="C349" s="96"/>
+      <c r="D349" s="96"/>
+      <c r="E349" s="96"/>
+      <c r="F349" s="96"/>
+      <c r="G349" s="96"/>
+      <c r="H349" s="96"/>
+      <c r="I349" s="98"/>
+      <c r="J349" s="98"/>
+      <c r="K349" s="135"/>
+      <c r="L349" s="136" t="s">
+        <v>311</v>
+      </c>
+      <c r="M349" s="134" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N349" s="134" t="s">
+        <v>1036</v>
+      </c>
+      <c r="O349" s="96" t="s">
+        <v>768</v>
+      </c>
+      <c r="P349" s="134"/>
+      <c r="Q349" s="137"/>
+    </row>
+    <row r="350" spans="1:17" ht="60">
+      <c r="A350" s="95"/>
+      <c r="B350" s="96"/>
+      <c r="C350" s="96"/>
+      <c r="D350" s="96"/>
+      <c r="E350" s="96"/>
+      <c r="F350" s="96"/>
+      <c r="G350" s="96"/>
+      <c r="H350" s="96"/>
+      <c r="I350" s="98"/>
+      <c r="J350" s="98"/>
+      <c r="K350" s="135"/>
+      <c r="L350" s="136" t="s">
+        <v>323</v>
+      </c>
+      <c r="M350" s="134" t="s">
+        <v>1037</v>
+      </c>
+      <c r="N350" s="134" t="s">
+        <v>1038</v>
+      </c>
+      <c r="O350" s="96" t="s">
+        <v>768</v>
+      </c>
+      <c r="P350" s="134"/>
+      <c r="Q350" s="137"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B278 B280 B282 B285 B288 B290 B292 B295 B299 B302 B304 B306 B308 B310 B312 B314 B316 B320 B322 B324 B326 B328">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B278 B280 B282 B285 B288 B290 B292 B295 B299 B302 B304 B306 B308 B310 B312 B314 B316 B320 B322 B324 B326 B328 B330 B332 B335 B338 B340:B341">
       <formula1>CASOSFINALES</formula1>
     </dataValidation>
   </dataValidations>
